--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1072562.417878774</v>
+        <v>1021242.756534407</v>
       </c>
     </row>
     <row r="7">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>184.5808806410316</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>42.94935504550538</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554011</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>94.63926978364066</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>155.3197306044664</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>337.8636609618419</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>74.76254277125831</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229251</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>68.16471659739317</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>54.47555601903365</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>104.5113366705975</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>327.5791098658735</v>
       </c>
     </row>
     <row r="9">
@@ -1217,7 +1217,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646393</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229251</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>94.63926978364064</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>9.275596830496642</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>211.032067031698</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>116.5302136598009</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -1429,13 +1429,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1536,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>128.7835007017904</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>218.3734398702018</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,10 +1624,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>257.0152846411291</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1773,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>88.83490402252943</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>37.0912691467164</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>15.99208609491567</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>128.7835007017904</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2089,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.4546728529501</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>42.552497644928</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2247,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>160.2491677474088</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>65.23699284296832</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>261.9380356950998</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>52.00692283493093</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>69.07086245343525</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>183.4463763215533</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>240.3575405958601</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>95.09774413911242</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>101.7806877295493</v>
+        <v>37.83808333974897</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>279.7305210707883</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>128.7835007017899</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>48.28463004918746</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>43.31785343914003</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>22.02087812852605</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>347.6307051167835</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>128.7835007017902</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>284.5615160058696</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>126.4837616268616</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>155.2114886365811</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>221.002178698296</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>10.04348869466916</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,7 +3994,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>995.950672805737</v>
+        <v>609.3508327416162</v>
       </c>
       <c r="C2" t="n">
-        <v>995.950672805737</v>
+        <v>240.3883158012044</v>
       </c>
       <c r="D2" t="n">
-        <v>995.950672805737</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E2" t="n">
-        <v>995.950672805737</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4336,46 +4336,46 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656313</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W2" t="n">
         <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1386.090004781549</v>
+        <v>1386.09000478155</v>
       </c>
       <c r="Y2" t="n">
-        <v>995.950672805737</v>
+        <v>995.9506728057379</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,13 +4406,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
         <v>713.8062203571349</v>
@@ -4421,40 +4421,40 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393.6767897220518</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="C4" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S4" t="n">
-        <v>393.6767897220518</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T4" t="n">
-        <v>393.6767897220518</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U4" t="n">
-        <v>393.6767897220518</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V4" t="n">
-        <v>393.6767897220518</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="W4" t="n">
-        <v>393.6767897220518</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="X4" t="n">
-        <v>393.6767897220518</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="Y4" t="n">
-        <v>393.6767897220518</v>
+        <v>149.5382038240419</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>764.1819239747579</v>
+        <v>1327.372931623165</v>
       </c>
       <c r="C5" t="n">
-        <v>395.2194070343461</v>
+        <v>958.4104146827531</v>
       </c>
       <c r="D5" t="n">
-        <v>395.2194070343461</v>
+        <v>958.4104146827531</v>
       </c>
       <c r="E5" t="n">
-        <v>395.2194070343461</v>
+        <v>958.4104146827531</v>
       </c>
       <c r="F5" t="n">
-        <v>395.2194070343461</v>
+        <v>547.4245098931456</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>129.4607017913324</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>129.4607017913324</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4573,46 +4573,46 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628376</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284805</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1540.921096014691</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>1540.921096014691</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y5" t="n">
-        <v>1150.78176403888</v>
+        <v>1327.372931623165</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
@@ -4691,7 +4691,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>291.796031170308</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>291.796031170308</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>291.796031170308</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>291.796031170308</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>291.796031170308</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>122.7962309086404</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>122.7962309086404</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036444</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036444</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036444</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>473.4444960005477</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>159.5099885583417</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C8" t="n">
-        <v>53.94298182036444</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>53.94298182036444</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>53.94298182036444</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036444</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2267.209817970485</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.483574129469</v>
+        <v>2267.209817970485</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859355</v>
+        <v>1914.441162700371</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982752</v>
+        <v>1540.975404439291</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.1098286224635</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170839</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359569</v>
       </c>
       <c r="D9" t="n">
         <v>665.1105362747051</v>
@@ -4880,31 +4880,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641996</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598715</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
@@ -4916,19 +4916,19 @@
         <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167583</v>
       </c>
       <c r="V9" t="n">
         <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207639</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002106</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>99.5995062532301</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V10" t="n">
-        <v>99.5995062532301</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="W10" t="n">
-        <v>99.5995062532301</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="X10" t="n">
-        <v>99.5995062532301</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.5995062532301</v>
+        <v>149.5382038240419</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>898.8784838925781</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C11" t="n">
-        <v>529.9159669521664</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D11" t="n">
-        <v>171.6502683454159</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E11" t="n">
-        <v>171.6502683454159</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>171.6502683454159</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5056,37 +5056,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628378</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>2224.752638628378</v>
       </c>
       <c r="W11" t="n">
-        <v>1662.48357412947</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X11" t="n">
-        <v>1289.01781586839</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y11" t="n">
-        <v>898.8784838925781</v>
+        <v>1481.844651382452</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K12" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M12" t="n">
         <v>1237.953133915166</v>
@@ -5141,22 +5141,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816298</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2476.569858826099</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C14" t="n">
-        <v>2107.607341885688</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D14" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E14" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y14" t="n">
-        <v>2697.149091018222</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="15">
@@ -5348,34 +5348,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816298</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>609.3508327416157</v>
+        <v>1675.109392681468</v>
       </c>
       <c r="C17" t="n">
-        <v>609.3508327416157</v>
+        <v>1306.146875741056</v>
       </c>
       <c r="D17" t="n">
-        <v>609.3508327416157</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>223.5625801433715</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>223.5625801433715</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
         <v>881.2824271224079</v>
@@ -5530,37 +5530,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U17" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942548</v>
       </c>
       <c r="V17" t="n">
-        <v>2112.324418312743</v>
+        <v>2048.575150942548</v>
       </c>
       <c r="W17" t="n">
-        <v>1759.555763042629</v>
+        <v>2048.575150942548</v>
       </c>
       <c r="X17" t="n">
-        <v>1386.090004781549</v>
+        <v>1675.109392681468</v>
       </c>
       <c r="Y17" t="n">
-        <v>995.9506728057374</v>
+        <v>1675.109392681468</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K19" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005474</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W19" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X19" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y19" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2323.103882821189</v>
+        <v>1194.68376869814</v>
       </c>
       <c r="C20" t="n">
-        <v>1954.141365880777</v>
+        <v>825.7212517577284</v>
       </c>
       <c r="D20" t="n">
-        <v>1595.875667274027</v>
+        <v>467.4555531509779</v>
       </c>
       <c r="E20" t="n">
-        <v>1210.087414675782</v>
+        <v>467.4555531509779</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861748</v>
+        <v>467.4555531509779</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>467.4555531509779</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>140.2608331869807</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5767,37 +5767,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2654.16677016476</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2654.16677016476</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2654.16677016476</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2654.16677016476</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>2323.103882821189</v>
+        <v>2311.057514205146</v>
       </c>
       <c r="W20" t="n">
-        <v>2323.103882821189</v>
+        <v>1958.288858935032</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.103882821189</v>
+        <v>1584.823100673952</v>
       </c>
       <c r="Y20" t="n">
-        <v>2323.103882821189</v>
+        <v>1194.68376869814</v>
       </c>
     </row>
     <row r="21">
@@ -5828,16 +5828,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M21" t="n">
         <v>1313.210296315296</v>
@@ -5849,7 +5849,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8405610245972</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8405610245972</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7239216122614</v>
+        <v>222.9427820820321</v>
       </c>
       <c r="E22" t="n">
-        <v>215.8108280298683</v>
+        <v>222.9427820820321</v>
       </c>
       <c r="F22" t="n">
-        <v>215.8108280298683</v>
+        <v>222.9427820820321</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5919,7 +5919,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N22" t="n">
         <v>529.6040388502502</v>
@@ -5928,34 +5928,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S22" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T22" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U22" t="n">
-        <v>513.8405610245972</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V22" t="n">
-        <v>513.8405610245972</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="W22" t="n">
-        <v>513.8405610245972</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="X22" t="n">
-        <v>513.8405610245972</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="Y22" t="n">
-        <v>513.8405610245972</v>
+        <v>373.0594214943678</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2169.72394915887</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C23" t="n">
-        <v>1800.761432218459</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D23" t="n">
-        <v>1442.495733611708</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E23" t="n">
-        <v>1056.707481013464</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>645.7215762238563</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6007,10 +6007,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
         <v>2642.120401548716</v>
@@ -6019,22 +6019,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520779</v>
+        <v>2589.588156260907</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.72394915887</v>
+        <v>2335.826370898998</v>
       </c>
       <c r="V23" t="n">
-        <v>2169.72394915887</v>
+        <v>2004.763483555427</v>
       </c>
       <c r="W23" t="n">
-        <v>2169.72394915887</v>
+        <v>2004.763483555427</v>
       </c>
       <c r="X23" t="n">
-        <v>2169.72394915887</v>
+        <v>1631.297725294347</v>
       </c>
       <c r="Y23" t="n">
-        <v>2169.72394915887</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6065,46 +6065,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6180,19 +6180,19 @@
         <v>343.1165921657965</v>
       </c>
       <c r="U25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1422.14692331494</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C26" t="n">
-        <v>1422.14692331494</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D26" t="n">
-        <v>1422.14692331494</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E26" t="n">
-        <v>1036.358670716696</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F26" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2572.351853615953</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2572.351853615953</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V26" t="n">
-        <v>2572.351853615953</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W26" t="n">
-        <v>2572.351853615953</v>
+        <v>1927.025048290973</v>
       </c>
       <c r="X26" t="n">
-        <v>2198.886095354873</v>
+        <v>1553.559290029893</v>
       </c>
       <c r="Y26" t="n">
-        <v>1808.746763379062</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6417,16 +6417,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064344</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064344</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W28" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X28" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y28" t="n">
         <v>53.94298182036446</v>
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1315.737983561873</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C29" t="n">
-        <v>946.7754666214612</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="D29" t="n">
-        <v>946.7754666214612</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E29" t="n">
-        <v>560.9872140232169</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F29" t="n">
-        <v>150.0013092336093</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G29" t="n">
-        <v>150.0013092336093</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>150.0013092336093</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6490,25 +6490,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U29" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V29" t="n">
-        <v>2465.942913862886</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W29" t="n">
-        <v>2465.942913862886</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X29" t="n">
-        <v>2092.477155601806</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y29" t="n">
-        <v>1702.337823625995</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="30">
@@ -6542,16 +6542,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>325.6879402326646</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C31" t="n">
-        <v>156.7517573047577</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D31" t="n">
-        <v>156.7517573047577</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E31" t="n">
-        <v>156.7517573047577</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036446</v>
@@ -6666,7 +6666,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.3364050629043</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>722.2873163082938</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C32" t="n">
-        <v>722.2873163082938</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D32" t="n">
-        <v>722.2873163082938</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E32" t="n">
-        <v>336.4990637100496</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F32" t="n">
-        <v>336.4990637100496</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036446</v>
@@ -6706,13 +6706,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6730,22 +6730,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>1485.892406545185</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X32" t="n">
-        <v>1112.426648284106</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y32" t="n">
-        <v>722.2873163082938</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="33">
@@ -6788,7 +6788,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>2567.064746875001</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V34" t="n">
-        <v>2312.380258669114</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1626.717708340416</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C35" t="n">
-        <v>1257.755191400005</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D35" t="n">
-        <v>899.4894927932542</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E35" t="n">
-        <v>513.7012401950099</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F35" t="n">
-        <v>102.7153354054023</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036446</v>
@@ -6943,13 +6943,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6973,16 +6973,16 @@
         <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W35" t="n">
-        <v>2013.317548404538</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X35" t="n">
-        <v>2013.317548404538</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>2013.317548404538</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="36">
@@ -7016,16 +7016,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7122,25 +7122,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>684.3735766921516</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V37" t="n">
-        <v>684.3735766921516</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W37" t="n">
-        <v>684.3735766921516</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X37" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y37" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>863.1126181035247</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="C38" t="n">
-        <v>494.150101163113</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="D38" t="n">
-        <v>494.150101163113</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E38" t="n">
-        <v>494.150101163113</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F38" t="n">
-        <v>494.150101163113</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G38" t="n">
-        <v>76.18629306129986</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
@@ -7186,40 +7186,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018223</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V38" t="n">
-        <v>2366.086203674652</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W38" t="n">
-        <v>2013.317548404538</v>
+        <v>1697.433024561957</v>
       </c>
       <c r="X38" t="n">
-        <v>1639.851790143458</v>
+        <v>1697.433024561957</v>
       </c>
       <c r="Y38" t="n">
-        <v>1249.712458167646</v>
+        <v>1697.433024561957</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
         <v>2188.831293537797</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7365,19 +7365,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>598.044640063212</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V40" t="n">
-        <v>343.3601518573251</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1865.381229508782</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C41" t="n">
-        <v>1496.41871256837</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D41" t="n">
-        <v>1138.15301396162</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E41" t="n">
-        <v>752.3647613633757</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F41" t="n">
-        <v>341.3788565737681</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M41" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N41" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X41" t="n">
-        <v>2642.120401548716</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>2251.981069572904</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7487,46 +7487,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T43" t="n">
-        <v>571.3497027553424</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U43" t="n">
-        <v>571.3497027553424</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V43" t="n">
-        <v>571.3497027553424</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="W43" t="n">
-        <v>281.9325327183818</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750361</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247702</v>
+        <v>1606.02060534945</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.68094731003</v>
+        <v>1606.02060534945</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7648,13 +7648,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1992.620445413572</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7727,19 +7727,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
         <v>2188.831293537797</v>
@@ -7748,22 +7748,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D46" t="n">
         <v>53.94298182036445</v>
@@ -7812,46 +7812,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064344</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610024</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270191</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028821</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270191</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142016</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142007</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.906554245176</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10436,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N33" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.906554245176</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10916,7 +10916,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>274.4264991783519</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11390,7 +11390,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>170.1021609796514</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>363.926690696206</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481168</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -22707,7 +22707,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>72.60755131498718</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22722,13 +22722,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,25 +22749,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>56.8258083455525</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>75.92050905895309</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>77.16877347360291</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481168</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22846,7 +22846,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>66.80090519494506</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,22 +22986,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>260.7615551004101</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481168</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>58.65882879018011</v>
       </c>
     </row>
     <row r="9">
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>85.19271039829665</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23199,10 +23199,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>277.0062774114811</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>171.7017746317826</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>297.253956360994</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23472,13 +23472,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401873</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>164.3604017932788</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>129.2226540149245</v>
       </c>
     </row>
     <row r="15">
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>123.3106349274895</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>317.5917724739666</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.7920839258793</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>51.04847948014722</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23946,7 +23946,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401873</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>66.47664339191113</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>11.9259049298837</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24135,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>7.060634511642149</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>221.2860054936227</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,22 +24208,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>151.8461343256952</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24259,22 +24259,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>164.4413975227269</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>147.3774579042225</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>165.7945923958598</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24657,19 +24657,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>63.3731647155137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>114.3255010248229</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>56.83357210574883</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>43.64036029338197</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>134.0536489500067</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24970,16 +24970,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>157.4983735401879</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>365.4995399716075</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25213,16 +25213,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25362,25 +25362,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
-        <v>168.8276855108789</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>301.9018946358311</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.610263600629537</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25605,7 +25605,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>157.4983735401875</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>129.2226540149254</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>40.76305947176621</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>69.82361682150315</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25848,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>144.2707130727115</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>344.6395529260138</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25924,7 +25924,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>53.2852373946528</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>157.4983735401874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>746197.0650754838</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754841</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>746197.0650754838</v>
+        <v>746197.065075484</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.0650754838</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>746197.0650754838</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="C2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="C2" t="n">
-        <v>274694.9795149698</v>
-      </c>
       <c r="D2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="E2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="F2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="G2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="H2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="I2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="J2" t="n">
         <v>274694.9795149697</v>
-      </c>
-      <c r="I2" t="n">
-        <v>274694.97951497</v>
-      </c>
-      <c r="J2" t="n">
-        <v>274694.9795149698</v>
       </c>
       <c r="K2" t="n">
         <v>274694.9795149698</v>
@@ -26352,10 +26352,10 @@
         <v>274694.9795149697</v>
       </c>
       <c r="O2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="P2" t="n">
         <v>274694.9795149696</v>
-      </c>
-      <c r="P2" t="n">
-        <v>274694.9795149697</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="C4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="D4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="E4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="F4" t="n">
         <v>9371.018034361485</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9371.018034361483</v>
       </c>
       <c r="G4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="H4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="I4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361481</v>
       </c>
       <c r="J4" t="n">
         <v>9371.018034361485</v>
       </c>
       <c r="K4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="L4" t="n">
         <v>9371.018034361485</v>
       </c>
       <c r="M4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="N4" t="n">
         <v>9371.018034361485</v>
       </c>
-      <c r="N4" t="n">
-        <v>9371.018034361483</v>
-      </c>
       <c r="O4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="P4" t="n">
         <v>9371.018034361483</v>
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>49231.47806340949</v>
+      </c>
+      <c r="F5" t="n">
+        <v>49231.47806340949</v>
+      </c>
+      <c r="G5" t="n">
+        <v>49231.47806340949</v>
+      </c>
+      <c r="H5" t="n">
+        <v>49231.47806340949</v>
+      </c>
+      <c r="I5" t="n">
         <v>49231.47806340946</v>
-      </c>
-      <c r="F5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="G5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="H5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="I5" t="n">
-        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340947</v>
@@ -26505,10 +26505,10 @@
         <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="O5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="O5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-407502.9957973455</v>
+        <v>-413571.409543165</v>
       </c>
       <c r="C6" t="n">
-        <v>182464.8834171989</v>
+        <v>176396.4696713796</v>
       </c>
       <c r="D6" t="n">
-        <v>182464.8834171989</v>
+        <v>176396.4696713797</v>
       </c>
       <c r="E6" t="n">
-        <v>216092.4834171989</v>
+        <v>210024.0696713797</v>
       </c>
       <c r="F6" t="n">
-        <v>216092.4834171989</v>
+        <v>210024.0696713796</v>
       </c>
       <c r="G6" t="n">
-        <v>216092.4834171986</v>
+        <v>210024.0696713797</v>
       </c>
       <c r="H6" t="n">
-        <v>216092.4834171988</v>
+        <v>210024.0696713797</v>
       </c>
       <c r="I6" t="n">
-        <v>216092.483417199</v>
+        <v>210024.0696713797</v>
       </c>
       <c r="J6" t="n">
-        <v>39669.26422460593</v>
+        <v>33600.85047878658</v>
       </c>
       <c r="K6" t="n">
-        <v>216092.4834171988</v>
+        <v>210024.0696713796</v>
       </c>
       <c r="L6" t="n">
-        <v>216092.4834171988</v>
+        <v>210024.0696713796</v>
       </c>
       <c r="M6" t="n">
-        <v>216092.4834171988</v>
+        <v>210024.0696713795</v>
       </c>
       <c r="N6" t="n">
-        <v>216092.4834171987</v>
+        <v>210024.0696713796</v>
       </c>
       <c r="O6" t="n">
-        <v>216092.4834171987</v>
+        <v>210024.0696713796</v>
       </c>
       <c r="P6" t="n">
-        <v>216092.4834171988</v>
+        <v>210024.0696713795</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170867</v>
@@ -26776,10 +26776,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
+        <v>674.2872727545558</v>
+      </c>
+      <c r="F4" t="n">
+        <v>674.2872727545558</v>
+      </c>
+      <c r="G4" t="n">
+        <v>674.2872727545558</v>
+      </c>
+      <c r="H4" t="n">
+        <v>674.2872727545558</v>
+      </c>
+      <c r="I4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="F4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="G4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="H4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="I4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545557</v>
@@ -26825,10 +26825,10 @@
         <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="O4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="O4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545556</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31931,28 +31931,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32168,28 +32168,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32405,28 +32405,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32478,34 +32478,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M20" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P20" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,40 +32542,40 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I21" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N21" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
@@ -32584,7 +32584,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,25 +32645,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932188</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770693</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047528</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
         <v>130.3926104730631</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M13" t="n">
         <v>146.3614835535656</v>
@@ -35582,10 +35582,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047519</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M16" t="n">
         <v>146.3614835535656</v>
@@ -35819,10 +35819,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,10 +36044,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L19" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M19" t="n">
         <v>146.3614835535656</v>
@@ -36056,10 +36056,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36126,22 +36126,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M20" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P20" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338903</v>
@@ -36217,10 +36217,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36293,10 +36293,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O22" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -37156,10 +37156,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37636,7 +37636,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>325.1459203262123</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735647</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38107,13 +38107,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
